--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cav1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>42.060223613592</v>
+        <v>0.06368866666666667</v>
       </c>
       <c r="H2">
-        <v>42.060223613592</v>
+        <v>0.191066</v>
       </c>
       <c r="I2">
-        <v>0.04742424402950945</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="J2">
-        <v>0.04742424402950945</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>490.021123318345</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N2">
-        <v>490.021123318345</v>
+        <v>1651.14743</v>
       </c>
       <c r="O2">
-        <v>0.6009291716231846</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P2">
-        <v>0.6009291716231846</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q2">
-        <v>20610.39802215313</v>
+        <v>35.05312609559779</v>
       </c>
       <c r="R2">
-        <v>20610.39802215313</v>
+        <v>315.4781348603801</v>
       </c>
       <c r="S2">
-        <v>0.02849861167950887</v>
+        <v>4.166326103506998E-05</v>
       </c>
       <c r="T2">
-        <v>0.02849861167950887</v>
+        <v>4.166326103506999E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>42.060223613592</v>
+        <v>0.06368866666666667</v>
       </c>
       <c r="H3">
-        <v>42.060223613592</v>
+        <v>0.191066</v>
       </c>
       <c r="I3">
-        <v>0.04742424402950945</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="J3">
-        <v>0.04742424402950945</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>216.739038472724</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N3">
-        <v>216.739038472724</v>
+        <v>654.373214</v>
       </c>
       <c r="O3">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P3">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q3">
-        <v>9116.092423957691</v>
+        <v>13.89205250068045</v>
       </c>
       <c r="R3">
-        <v>9116.092423957691</v>
+        <v>125.028472506124</v>
       </c>
       <c r="S3">
-        <v>0.01260509271803682</v>
+        <v>1.651174300603775E-05</v>
       </c>
       <c r="T3">
-        <v>0.01260509271803682</v>
+        <v>1.651174300603775E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>42.060223613592</v>
+        <v>0.06368866666666667</v>
       </c>
       <c r="H4">
-        <v>42.060223613592</v>
+        <v>0.191066</v>
       </c>
       <c r="I4">
-        <v>0.04742424402950945</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="J4">
-        <v>0.04742424402950945</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.09688419632338</v>
+        <v>0.451923</v>
       </c>
       <c r="N4">
-        <v>2.09688419632338</v>
+        <v>1.355769</v>
       </c>
       <c r="O4">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P4">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q4">
-        <v>88.19541818916851</v>
+        <v>0.028782373306</v>
       </c>
       <c r="R4">
-        <v>88.19541818916851</v>
+        <v>0.259041359754</v>
       </c>
       <c r="S4">
-        <v>0.000121950433571609</v>
+        <v>3.421000252548967E-08</v>
       </c>
       <c r="T4">
-        <v>0.000121950433571609</v>
+        <v>3.421000252548968E-08</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>42.060223613592</v>
+        <v>0.06368866666666667</v>
       </c>
       <c r="H5">
-        <v>42.060223613592</v>
+        <v>0.191066</v>
       </c>
       <c r="I5">
-        <v>0.04742424402950945</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="J5">
-        <v>0.04742424402950945</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>106.582021473315</v>
+        <v>1.091144</v>
       </c>
       <c r="N5">
-        <v>106.582021473315</v>
+        <v>3.273432</v>
       </c>
       <c r="O5">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P5">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q5">
-        <v>4482.863656356293</v>
+        <v>0.06949350650133335</v>
       </c>
       <c r="R5">
-        <v>4482.863656356293</v>
+        <v>0.6254415585120001</v>
       </c>
       <c r="S5">
-        <v>0.006198589198392148</v>
+        <v>8.259822800714482E-08</v>
       </c>
       <c r="T5">
-        <v>0.006198589198392148</v>
+        <v>8.259822800714482E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>28.8850730112855</v>
+        <v>0.06368866666666667</v>
       </c>
       <c r="H6">
-        <v>28.8850730112855</v>
+        <v>0.191066</v>
       </c>
       <c r="I6">
-        <v>0.03256884138045155</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="J6">
-        <v>0.03256884138045155</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>490.021123318345</v>
+        <v>2.325947</v>
       </c>
       <c r="N6">
-        <v>490.021123318345</v>
+        <v>6.977841</v>
       </c>
       <c r="O6">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P6">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q6">
-        <v>14154.29592412253</v>
+        <v>0.1481364631673333</v>
       </c>
       <c r="R6">
-        <v>14154.29592412253</v>
+        <v>1.333228168506</v>
       </c>
       <c r="S6">
-        <v>0.01957156687148165</v>
+        <v>1.760712615736644E-07</v>
       </c>
       <c r="T6">
-        <v>0.01957156687148165</v>
+        <v>1.760712615736644E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>28.8850730112855</v>
+        <v>0.06368866666666667</v>
       </c>
       <c r="H7">
-        <v>28.8850730112855</v>
+        <v>0.191066</v>
       </c>
       <c r="I7">
-        <v>0.03256884138045155</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="J7">
-        <v>0.03256884138045155</v>
+        <v>6.754301890156525E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>216.739038472724</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N7">
-        <v>216.739038472724</v>
+        <v>359.654671</v>
       </c>
       <c r="O7">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P7">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q7">
-        <v>6260.522950680449</v>
+        <v>7.635308818809556</v>
       </c>
       <c r="R7">
-        <v>6260.522950680449</v>
+        <v>68.71777936928601</v>
       </c>
       <c r="S7">
-        <v>0.008656611691357154</v>
+        <v>9.075135368351215E-06</v>
       </c>
       <c r="T7">
-        <v>0.008656611691357154</v>
+        <v>9.075135368351216E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.8850730112855</v>
+        <v>42.307809</v>
       </c>
       <c r="H8">
-        <v>28.8850730112855</v>
+        <v>126.923427</v>
       </c>
       <c r="I8">
-        <v>0.03256884138045155</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="J8">
-        <v>0.03256884138045155</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.09688419632338</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N8">
-        <v>2.09688419632338</v>
+        <v>1651.14743</v>
       </c>
       <c r="O8">
-        <v>0.002571478703924644</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P8">
-        <v>0.002571478703924644</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q8">
-        <v>60.56865310701155</v>
+        <v>23285.47669976029</v>
       </c>
       <c r="R8">
-        <v>60.56865310701155</v>
+        <v>209569.2902978426</v>
       </c>
       <c r="S8">
-        <v>8.375008202133088E-05</v>
+        <v>0.02767652994549867</v>
       </c>
       <c r="T8">
-        <v>8.375008202133088E-05</v>
+        <v>0.02767652994549867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.8850730112855</v>
+        <v>42.307809</v>
       </c>
       <c r="H9">
-        <v>28.8850730112855</v>
+        <v>126.923427</v>
       </c>
       <c r="I9">
-        <v>0.03256884138045155</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="J9">
-        <v>0.03256884138045155</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.582021473315</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N9">
-        <v>106.582021473315</v>
+        <v>654.373214</v>
       </c>
       <c r="O9">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P9">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q9">
-        <v>3078.629471947103</v>
+        <v>9228.365650876041</v>
       </c>
       <c r="R9">
-        <v>3078.629471947103</v>
+        <v>83055.29085788438</v>
       </c>
       <c r="S9">
-        <v>0.004256912735591422</v>
+        <v>0.01096860251467866</v>
       </c>
       <c r="T9">
-        <v>0.004256912735591422</v>
+        <v>0.01096860251467866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.7035350793211</v>
+        <v>42.307809</v>
       </c>
       <c r="H10">
-        <v>35.7035350793211</v>
+        <v>126.923427</v>
       </c>
       <c r="I10">
-        <v>0.04025687490093855</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="J10">
-        <v>0.04025687490093855</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>490.021123318345</v>
+        <v>0.451923</v>
       </c>
       <c r="N10">
-        <v>490.021123318345</v>
+        <v>1.355769</v>
       </c>
       <c r="O10">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P10">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q10">
-        <v>17495.48636600486</v>
+        <v>19.119871966707</v>
       </c>
       <c r="R10">
-        <v>17495.48636600486</v>
+        <v>172.078847700363</v>
       </c>
       <c r="S10">
-        <v>0.02419153048635917</v>
+        <v>2.272539728792043E-05</v>
       </c>
       <c r="T10">
-        <v>0.02419153048635917</v>
+        <v>2.272539728792043E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.7035350793211</v>
+        <v>42.307809</v>
       </c>
       <c r="H11">
-        <v>35.7035350793211</v>
+        <v>126.923427</v>
       </c>
       <c r="I11">
-        <v>0.04025687490093855</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="J11">
-        <v>0.04025687490093855</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>216.739038472724</v>
+        <v>1.091144</v>
       </c>
       <c r="N11">
-        <v>216.739038472724</v>
+        <v>3.273432</v>
       </c>
       <c r="O11">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P11">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q11">
-        <v>7738.349863169226</v>
+        <v>46.163911943496</v>
       </c>
       <c r="R11">
-        <v>7738.349863169226</v>
+        <v>415.475207491464</v>
       </c>
       <c r="S11">
-        <v>0.01070004701285249</v>
+        <v>5.486926068894623E-05</v>
       </c>
       <c r="T11">
-        <v>0.01070004701285249</v>
+        <v>5.486926068894623E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.7035350793211</v>
+        <v>42.307809</v>
       </c>
       <c r="H12">
-        <v>35.7035350793211</v>
+        <v>126.923427</v>
       </c>
       <c r="I12">
-        <v>0.04025687490093855</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="J12">
-        <v>0.04025687490093855</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.09688419632338</v>
+        <v>2.325947</v>
       </c>
       <c r="N12">
-        <v>2.09688419632338</v>
+        <v>6.977841</v>
       </c>
       <c r="O12">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P12">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q12">
-        <v>74.86617846070583</v>
+        <v>98.40572142012299</v>
       </c>
       <c r="R12">
-        <v>74.86617846070583</v>
+        <v>885.651492781107</v>
       </c>
       <c r="S12">
-        <v>0.000103519696494322</v>
+        <v>0.0001169625569967597</v>
       </c>
       <c r="T12">
-        <v>0.000103519696494322</v>
+        <v>0.0001169625569967597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.7035350793211</v>
+        <v>42.307809</v>
       </c>
       <c r="H13">
-        <v>35.7035350793211</v>
+        <v>126.923427</v>
       </c>
       <c r="I13">
-        <v>0.04025687490093855</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="J13">
-        <v>0.04025687490093855</v>
+        <v>0.04486822055683605</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.582021473315</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N13">
-        <v>106.582021473315</v>
+        <v>359.654671</v>
       </c>
       <c r="O13">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P13">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q13">
-        <v>3805.354942497457</v>
+        <v>5072.067042208613</v>
       </c>
       <c r="R13">
-        <v>3805.354942497457</v>
+        <v>45648.60337987752</v>
       </c>
       <c r="S13">
-        <v>0.005261777705232571</v>
+        <v>0.00602853088168509</v>
       </c>
       <c r="T13">
-        <v>0.005261777705232571</v>
+        <v>0.006028530881685092</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>779.956810584147</v>
+        <v>47.736493</v>
       </c>
       <c r="H14">
-        <v>779.956810584147</v>
+        <v>143.209479</v>
       </c>
       <c r="I14">
-        <v>0.8794261879688937</v>
+        <v>0.05062544119299253</v>
       </c>
       <c r="J14">
-        <v>0.8794261879688937</v>
+        <v>0.05062544119299252</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>490.021123318345</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N14">
-        <v>490.021123318345</v>
+        <v>1651.14743</v>
       </c>
       <c r="O14">
-        <v>0.6009291716231846</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P14">
-        <v>0.6009291716231846</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q14">
-        <v>382195.3124622374</v>
+        <v>26273.329244721</v>
       </c>
       <c r="R14">
-        <v>382195.3124622374</v>
+        <v>236459.963202489</v>
       </c>
       <c r="S14">
-        <v>0.5284728506398824</v>
+        <v>0.03122781607545755</v>
       </c>
       <c r="T14">
-        <v>0.5284728506398824</v>
+        <v>0.03122781607545755</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>779.956810584147</v>
+        <v>47.736493</v>
       </c>
       <c r="H15">
-        <v>779.956810584147</v>
+        <v>143.209479</v>
       </c>
       <c r="I15">
-        <v>0.8794261879688937</v>
+        <v>0.05062544119299253</v>
       </c>
       <c r="J15">
-        <v>0.8794261879688937</v>
+        <v>0.05062544119299252</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>216.739038472724</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N15">
-        <v>216.739038472724</v>
+        <v>654.373214</v>
       </c>
       <c r="O15">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P15">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q15">
-        <v>169047.0891762605</v>
+        <v>10412.4941164995</v>
       </c>
       <c r="R15">
-        <v>169047.0891762605</v>
+        <v>93712.44704849549</v>
       </c>
       <c r="S15">
-        <v>0.2337464489917827</v>
+        <v>0.01237602772485193</v>
       </c>
       <c r="T15">
-        <v>0.2337464489917827</v>
+        <v>0.01237602772485193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>779.956810584147</v>
+        <v>47.736493</v>
       </c>
       <c r="H16">
-        <v>779.956810584147</v>
+        <v>143.209479</v>
       </c>
       <c r="I16">
-        <v>0.8794261879688937</v>
+        <v>0.05062544119299253</v>
       </c>
       <c r="J16">
-        <v>0.8794261879688937</v>
+        <v>0.05062544119299252</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.09688419632338</v>
+        <v>0.451923</v>
       </c>
       <c r="N16">
-        <v>2.09688419632338</v>
+        <v>1.355769</v>
       </c>
       <c r="O16">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P16">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q16">
-        <v>1635.479109928686</v>
+        <v>21.573219126039</v>
       </c>
       <c r="R16">
-        <v>1635.479109928686</v>
+        <v>194.158972134351</v>
       </c>
       <c r="S16">
-        <v>0.002261425714035641</v>
+        <v>2.564138380593125E-05</v>
       </c>
       <c r="T16">
-        <v>0.002261425714035641</v>
+        <v>2.564138380593125E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>779.956810584147</v>
+        <v>47.736493</v>
       </c>
       <c r="H17">
-        <v>779.956810584147</v>
+        <v>143.209479</v>
       </c>
       <c r="I17">
-        <v>0.8794261879688937</v>
+        <v>0.05062544119299253</v>
       </c>
       <c r="J17">
-        <v>0.8794261879688937</v>
+        <v>0.05062544119299252</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>106.582021473315</v>
+        <v>1.091144</v>
       </c>
       <c r="N17">
-        <v>106.582021473315</v>
+        <v>3.273432</v>
       </c>
       <c r="O17">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P17">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q17">
-        <v>83129.37353393783</v>
+        <v>52.087387917992</v>
       </c>
       <c r="R17">
-        <v>83129.37353393783</v>
+        <v>468.7864912619279</v>
       </c>
       <c r="S17">
-        <v>0.1149454626231931</v>
+        <v>6.190975474038509E-05</v>
       </c>
       <c r="T17">
-        <v>0.1149454626231931</v>
+        <v>6.190975474038508E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.287221779667462</v>
+        <v>47.736493</v>
       </c>
       <c r="H18">
-        <v>0.287221779667462</v>
+        <v>143.209479</v>
       </c>
       <c r="I18">
-        <v>0.0003238517202066876</v>
+        <v>0.05062544119299253</v>
       </c>
       <c r="J18">
-        <v>0.0003238517202066876</v>
+        <v>0.05062544119299252</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>490.021123318345</v>
+        <v>2.325947</v>
       </c>
       <c r="N18">
-        <v>490.021123318345</v>
+        <v>6.977841</v>
       </c>
       <c r="O18">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P18">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q18">
-        <v>140.7447391141439</v>
+        <v>111.032552683871</v>
       </c>
       <c r="R18">
-        <v>140.7447391141439</v>
+        <v>999.2929741548389</v>
       </c>
       <c r="S18">
-        <v>0.0001946119459525481</v>
+        <v>0.0001319704899711995</v>
       </c>
       <c r="T18">
-        <v>0.0001946119459525481</v>
+        <v>0.0001319704899711995</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.287221779667462</v>
+        <v>47.736493</v>
       </c>
       <c r="H19">
-        <v>0.287221779667462</v>
+        <v>143.209479</v>
       </c>
       <c r="I19">
-        <v>0.0003238517202066876</v>
+        <v>0.05062544119299253</v>
       </c>
       <c r="J19">
-        <v>0.0003238517202066876</v>
+        <v>0.05062544119299252</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>216.739038472724</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N19">
-        <v>216.739038472724</v>
+        <v>359.654671</v>
       </c>
       <c r="O19">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P19">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q19">
-        <v>62.25217235355029</v>
+        <v>5722.884228202934</v>
       </c>
       <c r="R19">
-        <v>62.25217235355029</v>
+        <v>51505.95805382641</v>
       </c>
       <c r="S19">
-        <v>8.607793426418993E-05</v>
+        <v>0.006802075764165526</v>
       </c>
       <c r="T19">
-        <v>8.607793426418993E-05</v>
+        <v>0.006802075764165527</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.287221779667462</v>
+        <v>35.712335</v>
       </c>
       <c r="H20">
-        <v>0.287221779667462</v>
+        <v>107.137005</v>
       </c>
       <c r="I20">
-        <v>0.0003238517202066876</v>
+        <v>0.03787359736306873</v>
       </c>
       <c r="J20">
-        <v>0.0003238517202066876</v>
+        <v>0.03787359736306872</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.09688419632338</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N20">
-        <v>2.09688419632338</v>
+        <v>1651.14743</v>
       </c>
       <c r="O20">
-        <v>0.002571478703924644</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P20">
-        <v>0.002571478703924644</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q20">
-        <v>0.602270810624577</v>
+        <v>19655.44338484968</v>
       </c>
       <c r="R20">
-        <v>0.602270810624577</v>
+        <v>176898.9904636471</v>
       </c>
       <c r="S20">
-        <v>8.327778017408594E-07</v>
+        <v>0.02336196395921094</v>
       </c>
       <c r="T20">
-        <v>8.327778017408594E-07</v>
+        <v>0.02336196395921094</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>35.712335</v>
+      </c>
+      <c r="H21">
+        <v>107.137005</v>
+      </c>
+      <c r="I21">
+        <v>0.03787359736306873</v>
+      </c>
+      <c r="J21">
+        <v>0.03787359736306872</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>218.1244046666667</v>
+      </c>
+      <c r="N21">
+        <v>654.373214</v>
+      </c>
+      <c r="O21">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="P21">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="Q21">
+        <v>7789.731811131563</v>
+      </c>
+      <c r="R21">
+        <v>70107.58630018406</v>
+      </c>
+      <c r="S21">
+        <v>0.009258678639823837</v>
+      </c>
+      <c r="T21">
+        <v>0.009258678639823836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>35.712335</v>
+      </c>
+      <c r="H22">
+        <v>107.137005</v>
+      </c>
+      <c r="I22">
+        <v>0.03787359736306873</v>
+      </c>
+      <c r="J22">
+        <v>0.03787359736306872</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.451923</v>
+      </c>
+      <c r="N22">
+        <v>1.355769</v>
+      </c>
+      <c r="O22">
+        <v>0.0005064920562011907</v>
+      </c>
+      <c r="P22">
+        <v>0.0005064920562011908</v>
+      </c>
+      <c r="Q22">
+        <v>16.139225570205</v>
+      </c>
+      <c r="R22">
+        <v>145.253030131845</v>
+      </c>
+      <c r="S22">
+        <v>1.918267620415667E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.918267620415667E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>35.712335</v>
+      </c>
+      <c r="H23">
+        <v>107.137005</v>
+      </c>
+      <c r="I23">
+        <v>0.03787359736306873</v>
+      </c>
+      <c r="J23">
+        <v>0.03787359736306872</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>1.091144</v>
+      </c>
+      <c r="N23">
+        <v>3.273432</v>
+      </c>
+      <c r="O23">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="P23">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="Q23">
+        <v>38.96730006124</v>
+      </c>
+      <c r="R23">
+        <v>350.70570055116</v>
+      </c>
+      <c r="S23">
+        <v>4.631554942790771E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.63155494279077E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>35.712335</v>
+      </c>
+      <c r="H24">
+        <v>107.137005</v>
+      </c>
+      <c r="I24">
+        <v>0.03787359736306873</v>
+      </c>
+      <c r="J24">
+        <v>0.03787359736306872</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.325947</v>
+      </c>
+      <c r="N24">
+        <v>6.977841</v>
+      </c>
+      <c r="O24">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="P24">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="Q24">
+        <v>83.06499845624498</v>
+      </c>
+      <c r="R24">
+        <v>747.5849861062048</v>
+      </c>
+      <c r="S24">
+        <v>9.872896083852693E-05</v>
+      </c>
+      <c r="T24">
+        <v>9.872896083852693E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>35.712335</v>
+      </c>
+      <c r="H25">
+        <v>107.137005</v>
+      </c>
+      <c r="I25">
+        <v>0.03787359736306873</v>
+      </c>
+      <c r="J25">
+        <v>0.03787359736306872</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>119.8848903333333</v>
+      </c>
+      <c r="N25">
+        <v>359.654671</v>
+      </c>
+      <c r="O25">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="P25">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="Q25">
+        <v>4281.369365022261</v>
+      </c>
+      <c r="R25">
+        <v>38532.32428520035</v>
+      </c>
+      <c r="S25">
+        <v>0.005088727577563359</v>
+      </c>
+      <c r="T25">
+        <v>0.005088727577563359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.287221779667462</v>
-      </c>
-      <c r="H21">
-        <v>0.287221779667462</v>
-      </c>
-      <c r="I21">
-        <v>0.0003238517202066876</v>
-      </c>
-      <c r="J21">
-        <v>0.0003238517202066876</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>106.582021473315</v>
-      </c>
-      <c r="N21">
-        <v>106.582021473315</v>
-      </c>
-      <c r="O21">
-        <v>0.1307050713245975</v>
-      </c>
-      <c r="P21">
-        <v>0.1307050713245975</v>
-      </c>
-      <c r="Q21">
-        <v>30.61267788812118</v>
-      </c>
-      <c r="R21">
-        <v>30.61267788812118</v>
-      </c>
-      <c r="S21">
-        <v>4.232906218820869E-05</v>
-      </c>
-      <c r="T21">
-        <v>4.232906218820869E-05</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>816.7897336666666</v>
+      </c>
+      <c r="H26">
+        <v>2450.369201</v>
+      </c>
+      <c r="I26">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="J26">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>550.3824766666668</v>
+      </c>
+      <c r="N26">
+        <v>1651.14743</v>
+      </c>
+      <c r="O26">
+        <v>0.6168403739221149</v>
+      </c>
+      <c r="P26">
+        <v>0.616840373922115</v>
+      </c>
+      <c r="Q26">
+        <v>449546.7565313671</v>
+      </c>
+      <c r="R26">
+        <v>4045920.808782304</v>
+      </c>
+      <c r="S26">
+        <v>0.5343199295194271</v>
+      </c>
+      <c r="T26">
+        <v>0.5343199295194272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>816.7897336666666</v>
+      </c>
+      <c r="H27">
+        <v>2450.369201</v>
+      </c>
+      <c r="I27">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="J27">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>218.1244046666667</v>
+      </c>
+      <c r="N27">
+        <v>654.373214</v>
+      </c>
+      <c r="O27">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="P27">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="Q27">
+        <v>178161.7743938869</v>
+      </c>
+      <c r="R27">
+        <v>1603455.969544982</v>
+      </c>
+      <c r="S27">
+        <v>0.2117585887432722</v>
+      </c>
+      <c r="T27">
+        <v>0.2117585887432722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>816.7897336666666</v>
+      </c>
+      <c r="H28">
+        <v>2450.369201</v>
+      </c>
+      <c r="I28">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="J28">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.451923</v>
+      </c>
+      <c r="N28">
+        <v>1.355769</v>
+      </c>
+      <c r="O28">
+        <v>0.0005064920562011907</v>
+      </c>
+      <c r="P28">
+        <v>0.0005064920562011908</v>
+      </c>
+      <c r="Q28">
+        <v>369.126066807841</v>
+      </c>
+      <c r="R28">
+        <v>3322.134601270569</v>
+      </c>
+      <c r="S28">
+        <v>0.0004387339273057064</v>
+      </c>
+      <c r="T28">
+        <v>0.0004387339273057065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>816.7897336666666</v>
+      </c>
+      <c r="H29">
+        <v>2450.369201</v>
+      </c>
+      <c r="I29">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="J29">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>1.091144</v>
+      </c>
+      <c r="N29">
+        <v>3.273432</v>
+      </c>
+      <c r="O29">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="P29">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="Q29">
+        <v>891.2352171519814</v>
+      </c>
+      <c r="R29">
+        <v>8021.116954367832</v>
+      </c>
+      <c r="S29">
+        <v>0.001059299686840585</v>
+      </c>
+      <c r="T29">
+        <v>0.001059299686840585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>816.7897336666666</v>
+      </c>
+      <c r="H30">
+        <v>2450.369201</v>
+      </c>
+      <c r="I30">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="J30">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.325947</v>
+      </c>
+      <c r="N30">
+        <v>6.977841</v>
+      </c>
+      <c r="O30">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="P30">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="Q30">
+        <v>1899.809630652782</v>
+      </c>
+      <c r="R30">
+        <v>17098.28667587504</v>
+      </c>
+      <c r="S30">
+        <v>0.002258065781150607</v>
+      </c>
+      <c r="T30">
+        <v>0.002258065781150608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>816.7897336666666</v>
+      </c>
+      <c r="H31">
+        <v>2450.369201</v>
+      </c>
+      <c r="I31">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="J31">
+        <v>0.8662207470662301</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>119.8848903333333</v>
+      </c>
+      <c r="N31">
+        <v>359.654671</v>
+      </c>
+      <c r="O31">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="P31">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="Q31">
+        <v>97920.74764602087</v>
+      </c>
+      <c r="R31">
+        <v>881286.7288141879</v>
+      </c>
+      <c r="S31">
+        <v>0.1163861294082338</v>
+      </c>
+      <c r="T31">
+        <v>0.1163861294082339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3247946666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.974384</v>
+      </c>
+      <c r="I32">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="J32">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>550.3824766666668</v>
+      </c>
+      <c r="N32">
+        <v>1651.14743</v>
+      </c>
+      <c r="O32">
+        <v>0.6168403739221149</v>
+      </c>
+      <c r="P32">
+        <v>0.616840373922115</v>
+      </c>
+      <c r="Q32">
+        <v>178.7612930481245</v>
+      </c>
+      <c r="R32">
+        <v>1608.85163743312</v>
+      </c>
+      <c r="S32">
+        <v>0.0002124711614855371</v>
+      </c>
+      <c r="T32">
+        <v>0.0002124711614855371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3247946666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.974384</v>
+      </c>
+      <c r="I33">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="J33">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>218.1244046666667</v>
+      </c>
+      <c r="N33">
+        <v>654.373214</v>
+      </c>
+      <c r="O33">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="P33">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="Q33">
+        <v>70.84564330557511</v>
+      </c>
+      <c r="R33">
+        <v>637.610789750176</v>
+      </c>
+      <c r="S33">
+        <v>8.420534368854263E-05</v>
+      </c>
+      <c r="T33">
+        <v>8.420534368854264E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3247946666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.974384</v>
+      </c>
+      <c r="I34">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="J34">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.451923</v>
+      </c>
+      <c r="N34">
+        <v>1.355769</v>
+      </c>
+      <c r="O34">
+        <v>0.0005064920562011907</v>
+      </c>
+      <c r="P34">
+        <v>0.0005064920562011908</v>
+      </c>
+      <c r="Q34">
+        <v>0.146782180144</v>
+      </c>
+      <c r="R34">
+        <v>1.321039621296</v>
+      </c>
+      <c r="S34">
+        <v>1.744615949504189E-07</v>
+      </c>
+      <c r="T34">
+        <v>1.744615949504189E-07</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3247946666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.974384</v>
+      </c>
+      <c r="I35">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="J35">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>1.091144</v>
+      </c>
+      <c r="N35">
+        <v>3.273432</v>
+      </c>
+      <c r="O35">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="P35">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="Q35">
+        <v>0.3543977517653334</v>
+      </c>
+      <c r="R35">
+        <v>3.189579765888</v>
+      </c>
+      <c r="S35">
+        <v>4.212282237473637E-07</v>
+      </c>
+      <c r="T35">
+        <v>4.212282237473637E-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3247946666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.974384</v>
+      </c>
+      <c r="I36">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="J36">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.325947</v>
+      </c>
+      <c r="N36">
+        <v>6.977841</v>
+      </c>
+      <c r="O36">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="P36">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="Q36">
+        <v>0.7554551805493332</v>
+      </c>
+      <c r="R36">
+        <v>6.799096624944</v>
+      </c>
+      <c r="S36">
+        <v>8.979149620403074E-07</v>
+      </c>
+      <c r="T36">
+        <v>8.979149620403076E-07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3247946666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.974384</v>
+      </c>
+      <c r="I37">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="J37">
+        <v>0.0003444508019709564</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>119.8848903333333</v>
+      </c>
+      <c r="N37">
+        <v>359.654671</v>
+      </c>
+      <c r="O37">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="P37">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="Q37">
+        <v>38.93797299418489</v>
+      </c>
+      <c r="R37">
+        <v>350.441756947664</v>
+      </c>
+      <c r="S37">
+        <v>4.628069201613856E-05</v>
+      </c>
+      <c r="T37">
+        <v>4.628069201613857E-05</v>
       </c>
     </row>
   </sheetData>
